--- a/data/metrics_60_months_before_covid.xlsx
+++ b/data/metrics_60_months_before_covid.xlsx
@@ -472,19 +472,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17.80155443509467</v>
+        <v>17.66844471405463</v>
       </c>
       <c r="C2" t="n">
-        <v>24.7370152918586</v>
+        <v>23.73070317375016</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7172067537563324</v>
+        <v>0.7420110809667156</v>
       </c>
       <c r="E2" t="n">
-        <v>1.084085849333228</v>
+        <v>1.305573997661102</v>
       </c>
       <c r="F2" t="n">
-        <v>7.069139322256749</v>
+        <v>6.992209217887703</v>
       </c>
     </row>
     <row r="3">
@@ -494,19 +494,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.49159363531263</v>
+        <v>14.73541984188003</v>
       </c>
       <c r="C3" t="n">
-        <v>19.47271108613444</v>
+        <v>18.65086695561742</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7411188699650896</v>
+        <v>0.7868492052837236</v>
       </c>
       <c r="E3" t="n">
-        <v>1.027975409989373</v>
+        <v>1.209939020860741</v>
       </c>
       <c r="F3" t="n">
-        <v>5.591157159241984</v>
+        <v>5.495682552702294</v>
       </c>
     </row>
     <row r="4">
@@ -516,19 +516,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12.55757565613058</v>
+        <v>13.05291861646707</v>
       </c>
       <c r="C4" t="n">
-        <v>17.56652236719753</v>
+        <v>17.09425770168847</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7114427884410213</v>
+        <v>0.760075040590017</v>
       </c>
       <c r="E4" t="n">
-        <v>1.019788781093253</v>
+        <v>1.169449336231703</v>
       </c>
       <c r="F4" t="n">
-        <v>5.030822269247333</v>
+        <v>5.022278589382549</v>
       </c>
     </row>
   </sheetData>
